--- a/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
+++ b/Results/MultivModels_DOnsetMin#0#Max#10_AgeMin#30#Max#100_Target#IOT+death_Std#PowerTransformer_DatasetMaskedByCCI_RegFixed#False_NansRowGroupwise#50_PCAPercVarTh#5/performances_minNPV_test.xlsx
@@ -503,46 +503,46 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7360606060606061</v>
+        <v>0.7422948586993531</v>
       </c>
       <c r="C4">
-        <v>0.007054240247303833</v>
+        <v>0.009016503865830305</v>
       </c>
       <c r="D4">
-        <v>0.4657040631380128</v>
+        <v>0.4599761928915539</v>
       </c>
       <c r="E4">
-        <v>0.003731990343572023</v>
+        <v>0.00316939694981816</v>
       </c>
       <c r="F4">
-        <v>0.9715151515151514</v>
+        <v>0.9715151515151516</v>
       </c>
       <c r="G4">
-        <v>0.006985956094924139</v>
+        <v>0.008008834747224025</v>
       </c>
       <c r="H4">
-        <v>0.3067599147856694</v>
+        <v>0.3018386139599846</v>
       </c>
       <c r="I4">
-        <v>0.003543077872032507</v>
+        <v>0.003163752443226309</v>
       </c>
       <c r="J4">
-        <v>0.9579465322298365</v>
+        <v>0.9576257365153906</v>
       </c>
       <c r="K4">
-        <v>0.009329384109690197</v>
+        <v>0.009697179177575732</v>
       </c>
       <c r="L4">
-        <v>0.1807865168539326</v>
+        <v>0.1621348314606742</v>
       </c>
       <c r="M4">
-        <v>0.01712946168888757</v>
+        <v>0.01676854343446199</v>
       </c>
       <c r="N4">
-        <v>0.394672131147541</v>
+        <v>0.3810655737704917</v>
       </c>
       <c r="O4">
-        <v>0.01120715310299503</v>
+        <v>0.01057195098085734</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -550,46 +550,46 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7804732720463057</v>
+        <v>0.7751208716377255</v>
       </c>
       <c r="C5">
-        <v>0.007672615977088681</v>
+        <v>0.007798473214449264</v>
       </c>
       <c r="D5">
-        <v>0.5026867213615922</v>
+        <v>0.4958645912578259</v>
       </c>
       <c r="E5">
-        <v>0.003545720816431314</v>
+        <v>0.003927255878506952</v>
       </c>
       <c r="F5">
-        <v>0.96</v>
+        <v>0.9575757575757575</v>
       </c>
       <c r="G5">
-        <v>0.008917572981993804</v>
+        <v>0.008373523292756202</v>
       </c>
       <c r="H5">
-        <v>0.3411357158771821</v>
+        <v>0.3351334951641162</v>
       </c>
       <c r="I5">
-        <v>0.003636988281545406</v>
+        <v>0.003798843796718909</v>
       </c>
       <c r="J5">
-        <v>0.9609768489998579</v>
+        <v>0.9552036110668055</v>
       </c>
       <c r="K5">
-        <v>0.007479372542642082</v>
+        <v>0.007793885498381892</v>
       </c>
       <c r="L5">
-        <v>0.3086516853932584</v>
+        <v>0.2915730337078651</v>
       </c>
       <c r="M5">
-        <v>0.01425421564353757</v>
+        <v>0.01455715030511912</v>
       </c>
       <c r="N5">
-        <v>0.4848360655737705</v>
+        <v>0.4717213114754097</v>
       </c>
       <c r="O5">
-        <v>0.008785504526371446</v>
+        <v>0.009322600424856886</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -597,46 +597,46 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7866409266409267</v>
+        <v>0.7887837837837837</v>
       </c>
       <c r="C6">
-        <v>0.01071422613534578</v>
+        <v>0.01076771220703432</v>
       </c>
       <c r="D6">
-        <v>0.5227195255013355</v>
+        <v>0.5229197640115011</v>
       </c>
       <c r="E6">
-        <v>0.00623593684631607</v>
+        <v>0.007483149679095802</v>
       </c>
       <c r="F6">
-        <v>0.9378571428571429</v>
+        <v>0.9385714285714286</v>
       </c>
       <c r="G6">
-        <v>0.014478204391834</v>
+        <v>0.01721390630299202</v>
       </c>
       <c r="H6">
-        <v>0.3643336508863133</v>
+        <v>0.3655518058014338</v>
       </c>
       <c r="I6">
-        <v>0.006586297710961198</v>
+        <v>0.008078665101552751</v>
       </c>
       <c r="J6">
-        <v>0.9529859500750368</v>
+        <v>0.957127342230946</v>
       </c>
       <c r="K6">
-        <v>0.01025921148490994</v>
+        <v>0.01113856196568408</v>
       </c>
       <c r="L6">
-        <v>0.3708108108108108</v>
+        <v>0.3681081081081082</v>
       </c>
       <c r="M6">
-        <v>0.02232794336248717</v>
+        <v>0.0273424220788826</v>
       </c>
       <c r="N6">
-        <v>0.526470588235294</v>
+        <v>0.5247058823529412</v>
       </c>
       <c r="O6">
-        <v>0.01363961336032604</v>
+        <v>0.01671929595561017</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -644,46 +644,46 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8080694980694983</v>
+        <v>0.8149613899613901</v>
       </c>
       <c r="C7">
-        <v>0.01107483439133428</v>
+        <v>0.01137524436584969</v>
       </c>
       <c r="D7">
-        <v>0.5388224156053051</v>
+        <v>0.5389816371961875</v>
       </c>
       <c r="E7">
-        <v>0.008417145690983174</v>
+        <v>0.008866214298551833</v>
       </c>
       <c r="F7">
-        <v>0.9028571428571429</v>
+        <v>0.9171428571428573</v>
       </c>
       <c r="G7">
-        <v>0.01873772133132501</v>
+        <v>0.01764464063127991</v>
       </c>
       <c r="H7">
-        <v>0.3864740800862067</v>
+        <v>0.3845544353038528</v>
       </c>
       <c r="I7">
-        <v>0.007873174412118766</v>
+        <v>0.008881788296339455</v>
       </c>
       <c r="J7">
-        <v>0.9331777031094469</v>
+        <v>0.9423553503330697</v>
       </c>
       <c r="K7">
-        <v>0.01177102171700029</v>
+        <v>0.01104190622805035</v>
       </c>
       <c r="L7">
-        <v>0.4489189189189189</v>
+        <v>0.4318918918918919</v>
       </c>
       <c r="M7">
-        <v>0.02090082507094781</v>
+        <v>0.02415168094120412</v>
       </c>
       <c r="N7">
-        <v>0.573529411764706</v>
+        <v>0.5650980392156862</v>
       </c>
       <c r="O7">
-        <v>0.01327605208616889</v>
+        <v>0.01536851445092202</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -691,46 +691,46 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7842063492063491</v>
+        <v>0.7862896825396823</v>
       </c>
       <c r="C8">
-        <v>0.009988985217597945</v>
+        <v>0.007518899933755097</v>
       </c>
       <c r="D8">
-        <v>0.473517762288372</v>
+        <v>0.4824610061722561</v>
       </c>
       <c r="E8">
-        <v>0.007474152738010664</v>
+        <v>0.007201393559373437</v>
       </c>
       <c r="F8">
-        <v>0.9185714285714286</v>
+        <v>0.9290476190476188</v>
       </c>
       <c r="G8">
-        <v>0.01662766462177734</v>
+        <v>0.01625468891894088</v>
       </c>
       <c r="H8">
-        <v>0.3209578196246459</v>
+        <v>0.3282233495529252</v>
       </c>
       <c r="I8">
-        <v>0.006739630757545911</v>
+        <v>0.007000445233216801</v>
       </c>
       <c r="J8">
-        <v>0.9542660776250615</v>
+        <v>0.9621965457863879</v>
       </c>
       <c r="K8">
-        <v>0.00804620322043037</v>
+        <v>0.007186116357010275</v>
       </c>
       <c r="L8">
-        <v>0.4218055555555555</v>
+        <v>0.4326388888888889</v>
       </c>
       <c r="M8">
-        <v>0.02344206872885629</v>
+        <v>0.02387887293849406</v>
       </c>
       <c r="N8">
-        <v>0.533978494623656</v>
+        <v>0.544731182795699</v>
       </c>
       <c r="O8">
-        <v>0.01610442049204108</v>
+        <v>0.01614719126028352</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -738,46 +738,46 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8075479452054795</v>
+        <v>0.8118972602739727</v>
       </c>
       <c r="C9">
-        <v>0.008968540982923656</v>
+        <v>0.008967452425855726</v>
       </c>
       <c r="D9">
-        <v>0.5107660248810638</v>
+        <v>0.5076375515350973</v>
       </c>
       <c r="E9">
-        <v>0.008643731350789552</v>
+        <v>0.007622444401857331</v>
       </c>
       <c r="F9">
-        <v>0.9169999999999999</v>
+        <v>0.922</v>
       </c>
       <c r="G9">
-        <v>0.01609145836698689</v>
+        <v>0.015077094896504</v>
       </c>
       <c r="H9">
-        <v>0.3556618178097555</v>
+        <v>0.3514338945882258</v>
       </c>
       <c r="I9">
-        <v>0.00751244112376187</v>
+        <v>0.00643206108088118</v>
       </c>
       <c r="J9">
-        <v>0.9625239470647636</v>
+        <v>0.9638567722118847</v>
       </c>
       <c r="K9">
-        <v>0.006803708168206857</v>
+        <v>0.006617414789663489</v>
       </c>
       <c r="L9">
-        <v>0.5371232876712327</v>
+        <v>0.5286301369863012</v>
       </c>
       <c r="M9">
-        <v>0.0177474221973698</v>
+        <v>0.01474713411715645</v>
       </c>
       <c r="N9">
-        <v>0.6188172043010755</v>
+        <v>0.6132258064516131</v>
       </c>
       <c r="O9">
-        <v>0.01289935218476468</v>
+        <v>0.01071923808655117</v>
       </c>
     </row>
   </sheetData>
